--- a/Arbeitsdokumente_Aktuell/Gesamt_Zeiterfassung.xlsx
+++ b/Arbeitsdokumente_Aktuell/Gesamt_Zeiterfassung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente_Aktuell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBD7B12-1628-47F4-A0C3-4F5D1E6FDCA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6704B3-599E-4D03-A74A-1DA3787AC07E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Korrekturlesen der schriftlichen Arbeit</t>
+  </si>
+  <si>
+    <t>Gruppen-Meeting</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1046,7 @@
                 <c:formatCode>_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42</c:v>
@@ -1758,10 +1761,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:F63" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="B6:F63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B7:H63">
-    <sortCondition ref="C6:C63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:F64" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="B6:F64" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B7:H64">
+    <sortCondition ref="C6:C64"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
@@ -2200,8 +2203,8 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>Samardzic!F63</f>
-        <v>83</v>
+        <f>Samardzic!F64</f>
+        <v>85</v>
       </c>
       <c r="B4" s="1">
         <f>Dusanic!F59</f>
@@ -2335,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F244"/>
+  <dimension ref="A2:F245"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,89 +3054,89 @@
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="20">
+        <v>43495</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="F44" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C45" s="20">
         <v>43496</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D45" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E45" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="23" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C46" s="20">
         <v>43500</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D46" s="21">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E46" s="21">
         <v>0.5</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C47" s="20">
         <v>43499</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D47" s="21">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E47" s="21">
         <v>0.4375</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="20">
-        <v>43506</v>
-      </c>
-      <c r="D47" s="21">
-        <v>0.375</v>
-      </c>
-      <c r="E47" s="21">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F47">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="20">
-        <v>43507</v>
+        <v>43506</v>
       </c>
       <c r="D48" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="E48" s="21">
         <v>0.41666666666666669</v>
-      </c>
-      <c r="E48" s="21">
-        <v>0.45833333333333331</v>
       </c>
       <c r="F48">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
@@ -3142,16 +3145,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="20">
         <v>43507</v>
       </c>
       <c r="D49" s="21">
-        <v>0.35416666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E49" s="21">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F49">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
@@ -3160,53 +3163,61 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="20">
         <v>43507</v>
       </c>
       <c r="D50" s="21">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E50" s="21">
-        <v>0.83333333333333337</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F50">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="20">
+        <v>43507</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F51">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C52" s="20">
         <v>43508</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D52" s="21">
         <v>0.5</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E52" s="21">
         <v>0.625</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F52" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="24">
-        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="23"/>
-      <c r="C53" s="25"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
       <c r="F53" s="24">
@@ -3226,7 +3237,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
-      <c r="C55" s="20"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="24">
@@ -3236,9 +3247,9 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="23"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -3246,9 +3257,9 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="23"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="24">
         <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -3256,7 +3267,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B58" s="23"/>
-      <c r="C58" s="25"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="24">
@@ -3266,7 +3277,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59" s="23"/>
-      <c r="C59" s="20"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="24">
@@ -3285,7 +3296,6 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
       <c r="B61" s="23"/>
       <c r="C61" s="20"/>
       <c r="D61" s="21"/>
@@ -3308,49 +3318,54 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
-      <c r="B63" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63">
-        <f>SUM(F7:F62)</f>
-        <v>83</v>
+      <c r="B63" s="23"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="24">
+        <f>(Tabelle3[[#This Row],[bis]]*24)-(Tabelle3[[#This Row],[von]]*24)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
+      <c r="B64" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64">
+        <f>SUM(F7:F63)</f>
+        <v>85</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
-      <c r="B66" s="29"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
+      <c r="B67" s="29"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="32"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
@@ -3390,13 +3405,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
-      <c r="B76" s="33"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="6"/>
       <c r="D77" s="32"/>
     </row>
@@ -3582,15 +3597,15 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
-      <c r="B108" s="34"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="32"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
+      <c r="B109" s="34"/>
       <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="32"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
@@ -3598,29 +3613,29 @@
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
-      <c r="B111" s="29"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="29"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
-      <c r="B113" s="30"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="31"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="32"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="31"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
@@ -3852,15 +3867,15 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
-      <c r="B153" s="34"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="32"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
-      <c r="B154" s="6"/>
+      <c r="B154" s="34"/>
       <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
+      <c r="D154" s="32"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
@@ -3868,29 +3883,29 @@
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
-      <c r="B156" s="29"/>
+      <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
+      <c r="B157" s="29"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="31"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+    </row>
+    <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="32"/>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="31"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
@@ -4122,15 +4137,15 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
-      <c r="B198" s="34"/>
+      <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="32"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
+      <c r="B199" s="34"/>
       <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
+      <c r="D199" s="32"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
@@ -4138,29 +4153,29 @@
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
-      <c r="B201" s="29"/>
+      <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="29"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="30"/>
-      <c r="D203" s="31"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
-      <c r="D204" s="32"/>
+      <c r="B204" s="30"/>
+      <c r="C204" s="30"/>
+      <c r="D204" s="31"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
@@ -4368,6 +4383,9 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="32"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
@@ -4383,6 +4401,9 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Arbeitsdokumente_Aktuell/Gesamt_Zeiterfassung.xlsx
+++ b/Arbeitsdokumente_Aktuell/Gesamt_Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente_Aktuell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F3959E-71FC-4854-8C9A-79BAAF04B41D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2556C206-C113-4BC2-8386-7AEBBEF270E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
   <si>
     <t xml:space="preserve">Dusanic </t>
   </si>
@@ -142,9 +142,6 @@
     <t>Meeting mit Projektpartner</t>
   </si>
   <si>
-    <t>Dokumentation Spezifische Fragen über Softwareeigenentwicklung</t>
-  </si>
-  <si>
     <t>Gruppen Meeting &amp; Aufgabeneinteilung</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t>Zeitplan aktualisieren &amp; Vereinbarung Interview mit reqPOOL Mitarbeiter (Projekt-externe Person)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poster </t>
   </si>
   <si>
     <t>Präsentation Erstellung für 3 Meileinstein &amp; Vorbereiten &amp; Projektplan erstellen</t>
@@ -266,6 +260,18 @@
   </si>
   <si>
     <t>3. Mailenstein Präsentation</t>
+  </si>
+  <si>
+    <t>Bearbeitung vom Fragebogen (Make or Buy Entscheidungen, Faktoren)</t>
+  </si>
+  <si>
+    <t>Ausarbeitung des Fragenbogens (Änderung/Hinzufügen von Fragen basierend auf Feedback)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausarbeitung SeminararbeitDokument (Beschreibung vom Inhalt des Fragebogens bzw. der Fragen) </t>
+  </si>
+  <si>
+    <t>Managementpaper-Recherche</t>
   </si>
 </sst>
 </file>
@@ -589,25 +595,8 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -616,74 +605,25 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -761,26 +701,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -797,55 +717,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -897,12 +768,147 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1183,10 +1189,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.5</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>54.166666667000001</c:v>
@@ -1936,34 +1942,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle34" displayName="Tabelle34" ref="B6:F59" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle34" displayName="Tabelle34" ref="B6:F59" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="B6:F59" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dauer" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Beschreibung" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Datum" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="von" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="bis" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Dauer" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:F66" totalsRowCount="1" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:F66" totalsRowCount="1" headerRowDxfId="17">
   <autoFilter ref="B6:F65" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="14">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Beschreibung" totalsRowLabel="GESAMT" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Datum" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="von" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="bis" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dauer" totalsRowFunction="sum" totalsRowDxfId="0">
       <calculatedColumnFormula>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1972,24 +1978,24 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabelle37" displayName="Tabelle37" ref="B6:F58" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="B6:F58" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Beschreibung" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Datum" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="von" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="bis" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dauer" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabelle36" displayName="Tabelle36" ref="B6:F58" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B6:F58" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState ref="B7:H58">
     <sortCondition ref="C6:C58"/>
@@ -1999,7 +2005,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Datum"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="von"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Dauer" dataDxfId="9">
       <calculatedColumnFormula>(Tabelle36[[#This Row],[bis]]*24)-(Tabelle36[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2368,11 +2374,11 @@
       </c>
       <c r="C4" s="1">
         <f>Tabelle35[[#Totals],[Dauer]]</f>
-        <v>59.5</v>
+        <v>75.5</v>
       </c>
       <c r="D4" s="1">
         <f>Tomic!F58</f>
-        <v>43</v>
+        <v>78.5</v>
       </c>
       <c r="E4" s="1">
         <f>Stojcevic!F58</f>
@@ -2496,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F245"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,7 +2731,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="20">
         <v>43404</v>
@@ -2833,7 +2839,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="20">
         <v>43418</v>
@@ -2851,7 +2857,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="20">
         <v>43419</v>
@@ -2869,7 +2875,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="20">
         <v>43423</v>
@@ -2905,7 +2911,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="20">
         <v>43424</v>
@@ -2923,7 +2929,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="20">
         <v>43424</v>
@@ -2941,7 +2947,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="20">
         <v>43425</v>
@@ -2995,7 +3001,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="20">
         <v>43438</v>
@@ -3067,7 +3073,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="20">
         <v>43447</v>
@@ -3103,7 +3109,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="20">
         <v>43475</v>
@@ -3157,7 +3163,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="20">
         <v>43481</v>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" s="20">
         <v>43482</v>
@@ -3211,7 +3217,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" s="20">
         <v>43495</v>
@@ -3229,7 +3235,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="20">
         <v>43496</v>
@@ -3247,7 +3253,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="20">
         <v>43500</v>
@@ -3265,7 +3271,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="20">
         <v>43499</v>
@@ -3283,7 +3289,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="20">
         <v>43506</v>
@@ -3301,7 +3307,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="20">
         <v>43507</v>
@@ -3319,7 +3325,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="20">
         <v>43507</v>
@@ -3337,7 +3343,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="20">
         <v>43507</v>
@@ -3355,7 +3361,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="20">
         <v>43508</v>
@@ -4677,7 +4683,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="20">
         <v>43394</v>
@@ -4713,7 +4719,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" s="20">
         <v>43397</v>
@@ -4803,7 +4809,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="20">
         <v>43421</v>
@@ -4821,7 +4827,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="20">
         <v>43425</v>
@@ -4857,7 +4863,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="20">
         <v>43441</v>
@@ -4875,7 +4881,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="20">
         <v>43444</v>
@@ -4911,7 +4917,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="20">
         <v>43454</v>
@@ -4947,7 +4953,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="20">
         <v>43480</v>
@@ -4965,7 +4971,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" s="20">
         <v>43481</v>
@@ -5001,7 +5007,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="20">
         <v>43496</v>
@@ -5019,7 +5025,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="20">
         <v>43501</v>
@@ -5037,7 +5043,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="20">
         <v>43502</v>
@@ -5055,7 +5061,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" s="20">
         <v>43503</v>
@@ -5073,7 +5079,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C32" s="20">
         <v>43507</v>
@@ -5091,7 +5097,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="20">
         <v>43508</v>
@@ -6770,8 +6776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G229"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6829,8 +6835,8 @@
       <c r="E7" s="21">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F7">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F7" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1.5</v>
       </c>
     </row>
@@ -6847,8 +6853,8 @@
       <c r="E8" s="21">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F8">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F8" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
     </row>
@@ -6865,8 +6871,8 @@
       <c r="E9" s="21">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F9">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F9" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5.5</v>
       </c>
     </row>
@@ -6883,8 +6889,8 @@
       <c r="E10" s="21">
         <v>0.875</v>
       </c>
-      <c r="F10">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F10" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
     </row>
@@ -6902,8 +6908,8 @@
       <c r="E11" s="21">
         <v>0.4375</v>
       </c>
-      <c r="F11">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F11" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -6920,14 +6926,14 @@
       <c r="E12" s="21">
         <v>0.75</v>
       </c>
-      <c r="F12">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F12" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="20">
         <v>43427</v>
@@ -6936,16 +6942,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E13" s="21">
-        <v>0.5625</v>
-      </c>
-      <c r="F13">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3.5</v>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F13" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="20">
         <v>43441</v>
@@ -6954,11 +6960,11 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="E14" s="21">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F14">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>4.5</v>
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6974,8 +6980,8 @@
       <c r="E15" s="21">
         <v>0.75</v>
       </c>
-      <c r="F15">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F15" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
     </row>
@@ -6992,8 +6998,8 @@
       <c r="E16" s="21">
         <v>0.66666666666666663</v>
       </c>
-      <c r="F16">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F16" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
@@ -7010,14 +7016,14 @@
       <c r="E17" s="21">
         <v>0.75</v>
       </c>
-      <c r="F17">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F17" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="20">
         <v>43496</v>
@@ -7026,16 +7032,16 @@
         <v>0.5</v>
       </c>
       <c r="E18" s="21">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F18">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>2</v>
+        <v>0.625</v>
+      </c>
+      <c r="F18" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="20">
         <v>43499</v>
@@ -7046,14 +7052,14 @@
       <c r="E19" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F19">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F19" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="20">
         <v>43500</v>
@@ -7064,109 +7070,117 @@
       <c r="E20" s="21">
         <v>0.5</v>
       </c>
-      <c r="F20">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F20" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>65</v>
+      <c r="B21" t="s">
+        <v>77</v>
       </c>
       <c r="C21" s="20">
+        <v>43502</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F21" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="20">
         <v>43504</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="21">
         <v>0.39583333333333331</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E22" s="21">
         <v>0.625</v>
       </c>
-      <c r="F21">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
+      <c r="F22" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="20">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="20">
         <v>43505</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="F22">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="20">
-        <v>43506</v>
       </c>
       <c r="D23" s="21">
         <v>0.41666666666666669</v>
       </c>
       <c r="E23" s="21">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F23">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>4</v>
+        <v>0.6875</v>
+      </c>
+      <c r="F23" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>6.5</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="20">
-        <v>43507</v>
+        <v>43506</v>
       </c>
       <c r="D24" s="21">
-        <v>0.66666666666666663</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E24" s="21">
-        <v>0.8125</v>
-      </c>
-      <c r="F24">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3.5</v>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F24" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="20">
+        <v>43507</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="20">
         <v>43508</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D26" s="21">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E25" s="21">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="F25">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26">
-        <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+      <c r="E26" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="F26" s="24">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -7174,7 +7188,7 @@
       <c r="C27" s="20"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27">
+      <c r="F27" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7184,7 +7198,7 @@
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28">
+      <c r="F28" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7194,7 +7208,7 @@
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29">
+      <c r="F29" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7204,7 +7218,7 @@
       <c r="C30" s="20"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30">
+      <c r="F30" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7214,7 +7228,7 @@
       <c r="C31" s="20"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31">
+      <c r="F31" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7224,7 +7238,7 @@
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-      <c r="F32">
+      <c r="F32" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7234,7 +7248,7 @@
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
-      <c r="F33">
+      <c r="F33" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7244,7 +7258,7 @@
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-      <c r="F34">
+      <c r="F34" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7254,7 +7268,7 @@
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
-      <c r="F35">
+      <c r="F35" s="24">
         <f>([1]!Tabelle35[[#This Row],[bis]]*24)-([1]!Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
@@ -7588,7 +7602,7 @@
       <c r="E66" s="42"/>
       <c r="F66" s="42">
         <f>SUBTOTAL(109,Tabelle35[Dauer])</f>
-        <v>59.5</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -8878,8 +8892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:G233"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8971,80 +8985,80 @@
         <v>0.5</v>
       </c>
       <c r="E9" s="21">
-        <v>0.6875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F9">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C10" s="20">
-        <v>43395</v>
+        <v>43394</v>
       </c>
       <c r="D10" s="21">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E10" s="21">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F10">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11" s="20">
-        <v>43396</v>
+        <v>43395</v>
       </c>
       <c r="D11" s="21">
-        <v>0.58333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E11" s="21">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="F11">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" s="20">
-        <v>43414</v>
+        <v>43396</v>
       </c>
       <c r="D12" s="21">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E12" s="21">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="F12">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C13" s="20">
-        <v>43416</v>
+        <v>43397</v>
       </c>
       <c r="D13" s="21">
-        <v>0.39583333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E13" s="21">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="F13">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
@@ -9056,265 +9070,377 @@
         <v>18</v>
       </c>
       <c r="C14" s="20">
-        <v>43418</v>
+        <v>43412</v>
       </c>
       <c r="D14" s="21">
         <v>0.64583333333333337</v>
       </c>
       <c r="E14" s="21">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F14">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="20">
-        <v>43421</v>
+        <v>43414</v>
       </c>
       <c r="D15" s="21">
-        <v>0.45833333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="21">
         <v>0.625</v>
       </c>
       <c r="F15">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C16" s="20">
-        <v>43441</v>
+        <v>43416</v>
       </c>
       <c r="D16" s="21">
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E16" s="21">
-        <v>0.54166666666666663</v>
+        <v>0.4375</v>
       </c>
       <c r="F16">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C17" s="20">
-        <v>43444</v>
+        <v>43418</v>
       </c>
       <c r="D17" s="21">
-        <v>0.45833333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E17" s="21">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F17">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="C18" s="20">
-        <v>43446</v>
+        <v>43421</v>
       </c>
       <c r="D18" s="21">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E18" s="21">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="F18">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C19" s="20">
-        <v>43495</v>
+        <v>43425</v>
       </c>
       <c r="D19" s="21">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E19" s="21">
         <v>0.75</v>
       </c>
       <c r="F19">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C20" s="20">
-        <v>43496</v>
+        <v>43439</v>
       </c>
       <c r="D20" s="21">
-        <v>0.5</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E20" s="21">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F20">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="20">
+        <v>43441</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="F21">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="B22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="20">
+        <v>43444</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F22">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="B23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="20">
+        <v>43446</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.75</v>
+      </c>
       <c r="F23">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="B24" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="20">
+        <v>43454</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F24">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="23"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="B25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="20">
+        <v>43476</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F25">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="B26" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="20">
+        <v>43480</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.5</v>
+      </c>
       <c r="F26">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="20">
+        <v>43481</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0.75</v>
+      </c>
       <c r="F27">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="B28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="20">
+        <v>43495</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.75</v>
+      </c>
       <c r="F28">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="20">
+        <v>43496</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F29">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="B30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="20">
+        <v>43501</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F30">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="20">
+        <v>43502</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="F31">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="B32" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="20">
+        <v>43503</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F32">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="B33" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="20">
+        <v>43507</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F33">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="B34" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="20">
+        <v>43508</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0.625</v>
+      </c>
       <c r="F34">
         <f>(Tabelle37[[#This Row],[bis]]*24)-(Tabelle37[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -9568,7 +9694,7 @@
       <c r="E58" s="28"/>
       <c r="F58">
         <f>SUM(F7:F57)</f>
-        <v>43</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -11128,7 +11254,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="20">
         <v>43397</v>
@@ -11162,7 +11288,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="20">
         <v>43419</v>
@@ -11179,7 +11305,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="20">
         <v>43425</v>
@@ -11196,7 +11322,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="20">
         <v>43441</v>
@@ -11213,7 +11339,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="20">
         <v>43444</v>
@@ -11247,7 +11373,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="20">
         <v>43449</v>
@@ -11264,7 +11390,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="20">
         <v>43496</v>
@@ -11281,7 +11407,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="20">
         <v>43503</v>
@@ -11298,7 +11424,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="20">
         <v>43506</v>
@@ -11315,7 +11441,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="20">
         <v>43507</v>
@@ -11332,7 +11458,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="20">
         <v>43507</v>
@@ -11349,7 +11475,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="20">
         <v>43508</v>
